--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,9 +49,6 @@
     <t>useless</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -67,328 +64,334 @@
     <t>negative</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>loves</t>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
   </si>
   <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>best</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wedding</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>apples</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>salad</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>handy</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
+    <t>pop</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>fan</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>baking</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>years</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>amazon</t>
+    <t>pan</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>ice</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>maker</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
     <t>dish</t>
   </si>
   <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>far</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>big</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>fast</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>last</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
   </si>
   <si>
     <t>time</t>
@@ -761,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +772,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -830,13 +833,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -848,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -872,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -901,16 +904,16 @@
         <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.978494623655914</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L4">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -922,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -930,13 +933,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.525</v>
+        <v>0.45</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9473684210526315</v>
+        <v>0.9140625</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -972,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -980,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3018867924528302</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8828125</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L6">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="M6">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1022,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1030,13 +1033,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2403100775193799</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1048,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1072,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1080,13 +1083,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1923076923076923</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1098,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.8695652173913043</v>
@@ -1130,7 +1133,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1818181818181818</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -1148,69 +1151,45 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="L9">
+        <v>551</v>
+      </c>
+      <c r="M9">
+        <v>551</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9">
-        <v>0.8622291021671826</v>
-      </c>
-      <c r="L9">
-        <v>557</v>
-      </c>
-      <c r="M9">
-        <v>557</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1027027027027027</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>166</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K10">
-        <v>0.7954545454545454</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1222,21 +1201,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1248,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1300,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L14">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="M14">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1326,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7142857142857143</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.696969696969697</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L16">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6711864406779661</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L17">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1404,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6619718309859155</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6571428571428571</v>
+        <v>0.6396468699839486</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>797</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>797</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,15 +1435,15 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6538461538461539</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L20">
         <v>17</v>
@@ -1482,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6438356164383562</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="L21">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="M21">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1508,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6388888888888888</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1534,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6348314606741573</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="L23">
-        <v>791</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>791</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1560,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>455</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.631578947368421</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1586,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6296296296296297</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1612,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6285714285714286</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L26">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1638,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.6153846153846154</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1664,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.6122448979591837</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1690,21 +1669,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.6041666666666666</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1716,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.6029411764705882</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1742,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5846153846153846</v>
+        <v>0.578125</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1773,16 +1752,16 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5662650602409639</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L32">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1794,21 +1773,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5480769230769231</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L33">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1820,21 +1799,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.546875</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L34">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1846,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.5294117647058824</v>
+        <v>0.525</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1872,21 +1851,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.5238095238095238</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1898,21 +1877,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.5076923076923077</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1924,21 +1903,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.5042735042735043</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L38">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M38">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1950,21 +1929,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.4848484848484849</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1976,21 +1955,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.475</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2002,21 +1981,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.4736842105263158</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L41">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M41">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2028,21 +2007,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.4670658682634731</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L42">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2054,21 +2033,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.4615384615384616</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2080,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.4489795918367347</v>
+        <v>0.44</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2106,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.4444444444444444</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2132,21 +2111,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K46">
-        <v>0.44</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L46">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2158,21 +2137,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K47">
-        <v>0.4210526315789473</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2184,21 +2163,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K48">
-        <v>0.4156626506024096</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L48">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2210,21 +2189,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>0.4146341463414634</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2236,21 +2215,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>0.4126984126984127</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L50">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="M50">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2262,15 +2241,15 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>37</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>0.4098360655737705</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L51">
         <v>25</v>
@@ -2288,47 +2267,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K52">
-        <v>0.4032258064516129</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L52">
+        <v>16</v>
+      </c>
+      <c r="M52">
+        <v>16</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>25</v>
-      </c>
-      <c r="M52">
-        <v>25</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>37</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K53">
-        <v>0.3684210526315789</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L53">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2340,21 +2319,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K54">
-        <v>0.3651960784313725</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L54">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="M54">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2366,21 +2345,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>259</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K55">
-        <v>0.3636363636363636</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L55">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2392,21 +2371,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K56">
-        <v>0.3571428571428572</v>
+        <v>0.3406862745098039</v>
       </c>
       <c r="L56">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="M56">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2418,21 +2397,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>36</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K57">
-        <v>0.3383458646616541</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="L57">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2444,15 +2423,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K58">
-        <v>0.3260869565217391</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L58">
         <v>15</v>
@@ -2470,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K59">
-        <v>0.3055555555555556</v>
+        <v>0.3073929961089494</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2496,21 +2475,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>50</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K60">
-        <v>0.2949640287769784</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L60">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2522,21 +2501,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>98</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K61">
-        <v>0.2918287937743191</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L61">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2548,21 +2527,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>182</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K62">
-        <v>0.287037037037037</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L62">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M62">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2574,21 +2553,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K63">
-        <v>0.2772277227722773</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L63">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2600,21 +2579,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K64">
-        <v>0.2727272727272727</v>
+        <v>0.2805755395683453</v>
       </c>
       <c r="L64">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M64">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2626,21 +2605,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>152</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K65">
-        <v>0.2702702702702703</v>
+        <v>0.2712328767123288</v>
       </c>
       <c r="L65">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="M65">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2652,21 +2631,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>81</v>
+        <v>532</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K66">
-        <v>0.2666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="L66">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2678,21 +2657,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K67">
-        <v>0.2575757575757576</v>
+        <v>0.2440191387559809</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M67">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2704,21 +2683,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>49</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K68">
-        <v>0.2561643835616438</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L68">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="M68">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2730,47 +2709,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>543</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K69">
+        <v>0.2314814814814815</v>
+      </c>
+      <c r="L69">
+        <v>25</v>
+      </c>
+      <c r="M69">
+        <v>25</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
         <v>83</v>
-      </c>
-      <c r="K69">
-        <v>0.25</v>
-      </c>
-      <c r="L69">
-        <v>17</v>
-      </c>
-      <c r="M69">
-        <v>17</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>51</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K70">
-        <v>0.2497308934337998</v>
+        <v>0.2303552206673843</v>
       </c>
       <c r="L70">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="M70">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2782,21 +2761,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>697</v>
+        <v>715</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K71">
-        <v>0.2222222222222222</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L71">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M71">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2808,21 +2787,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K72">
-        <v>0.2077922077922078</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L72">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M72">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2834,21 +2813,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K73">
-        <v>0.2072072072072072</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L73">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M73">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2860,21 +2839,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K74">
-        <v>0.2052980132450331</v>
+        <v>0.2178217821782178</v>
       </c>
       <c r="L74">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M74">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2886,21 +2865,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K75">
-        <v>0.2</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L75">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="M75">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2912,21 +2891,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>84</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K76">
-        <v>0.1943573667711599</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="L76">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M76">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2938,21 +2917,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>257</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K77">
-        <v>0.1879194630872483</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L77">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M77">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2964,21 +2943,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78">
-        <v>0.1841059602649007</v>
+        <v>0.2</v>
       </c>
       <c r="L78">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="M78">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2990,21 +2969,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>616</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K79">
-        <v>0.1785714285714286</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3016,21 +2995,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>69</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K80">
-        <v>0.1764705882352941</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="L80">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M80">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3042,21 +3021,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K81">
-        <v>0.1687979539641944</v>
+        <v>0.1827814569536424</v>
       </c>
       <c r="L81">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M81">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3068,21 +3047,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>650</v>
+        <v>617</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K82">
-        <v>0.1651376146788991</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L82">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M82">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3094,21 +3073,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K83">
-        <v>0.1616161616161616</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="L83">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M83">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3120,47 +3099,47 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K84">
+        <v>0.1623931623931624</v>
+      </c>
+      <c r="L84">
+        <v>19</v>
+      </c>
+      <c r="M84">
+        <v>19</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
         <v>98</v>
-      </c>
-      <c r="K84">
-        <v>0.16</v>
-      </c>
-      <c r="L84">
-        <v>16</v>
-      </c>
-      <c r="M84">
-        <v>16</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>84</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K85">
-        <v>0.1538461538461539</v>
+        <v>0.1580756013745704</v>
       </c>
       <c r="L85">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="M85">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3172,21 +3151,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>99</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K86">
-        <v>0.1538461538461539</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="M86">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3198,21 +3177,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>110</v>
+        <v>663</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K87">
-        <v>0.1428571428571428</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="L87">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M87">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N87">
         <v>0.9399999999999999</v>
@@ -3224,21 +3203,21 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K88">
-        <v>0.139344262295082</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L88">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M88">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3250,21 +3229,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K89">
-        <v>0.1338199513381995</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="L89">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M89">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3276,21 +3255,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>356</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K90">
-        <v>0.1333333333333333</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L90">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M90">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3302,47 +3281,47 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K91">
-        <v>0.1317829457364341</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L91">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M91">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>112</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K92">
-        <v>0.1280487804878049</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L92">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M92">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3354,21 +3333,21 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K93">
-        <v>0.127147766323024</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="L93">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="M93">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3380,21 +3359,21 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>254</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K94">
-        <v>0.1242937853107345</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L94">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M94">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3406,21 +3385,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K95">
-        <v>0.1182266009852217</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L95">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M95">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3432,21 +3411,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>179</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K96">
-        <v>0.1159029649595687</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L96">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M96">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3458,21 +3437,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>328</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K97">
-        <v>0.1092436974789916</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L97">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M97">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3484,21 +3463,21 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>212</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K98">
-        <v>0.1068181818181818</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="L98">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M98">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3510,21 +3489,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>393</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K99">
-        <v>0.0996309963099631</v>
+        <v>0.1074074074074074</v>
       </c>
       <c r="L99">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M99">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3536,21 +3515,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K100">
-        <v>0.09803921568627451</v>
+        <v>0.09868421052631579</v>
       </c>
       <c r="L100">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M100">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3562,21 +3541,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>138</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K101">
-        <v>0.09259259259259259</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="L101">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M101">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3588,21 +3567,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>245</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K102">
-        <v>0.0918918918918919</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="L102">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M102">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3614,21 +3593,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K103">
-        <v>0.08991228070175439</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L103">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M103">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3640,21 +3619,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>415</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K104">
-        <v>0.08653846153846154</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L104">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M104">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3666,21 +3645,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K105">
-        <v>0.06854838709677419</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L105">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M105">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3692,73 +3671,73 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>231</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K106">
-        <v>0.06743185078909612</v>
+        <v>0.08591885441527446</v>
       </c>
       <c r="L106">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M106">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N106">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>650</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K107">
-        <v>0.06682577565632458</v>
+        <v>0.06599713055954089</v>
       </c>
       <c r="L107">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M107">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107">
-        <v>391</v>
+        <v>651</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K108">
-        <v>0.06557377049180328</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="L108">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M108">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3770,21 +3749,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>342</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K109">
-        <v>0.05690298507462686</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L109">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="M109">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3796,21 +3775,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>1011</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K110">
-        <v>0.05076142131979695</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L110">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M110">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3822,21 +3801,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>374</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K111">
-        <v>0.04428044280442804</v>
+        <v>0.0625</v>
       </c>
       <c r="L111">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M111">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3848,47 +3827,47 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>518</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K112">
-        <v>0.04358353510895883</v>
+        <v>0.06156716417910447</v>
       </c>
       <c r="L112">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M112">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N112">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O112">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>395</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K113">
-        <v>0.03831417624521073</v>
+        <v>0.04243542435424354</v>
       </c>
       <c r="L113">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M113">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -3900,33 +3879,85 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K114">
+        <v>0.03864734299516908</v>
+      </c>
+      <c r="L114">
+        <v>16</v>
+      </c>
+      <c r="M114">
+        <v>16</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K114">
-        <v>0.02420051858254105</v>
-      </c>
-      <c r="L114">
-        <v>28</v>
-      </c>
-      <c r="M114">
-        <v>28</v>
-      </c>
-      <c r="N114">
-        <v>1</v>
-      </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="P114" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>1129</v>
+      <c r="K115">
+        <v>0.03065134099616858</v>
+      </c>
+      <c r="L115">
+        <v>16</v>
+      </c>
+      <c r="M115">
+        <v>16</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K116">
+        <v>0.02599653379549393</v>
+      </c>
+      <c r="L116">
+        <v>30</v>
+      </c>
+      <c r="M116">
+        <v>33</v>
+      </c>
+      <c r="N116">
+        <v>0.91</v>
+      </c>
+      <c r="O116">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P116" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
